--- a/src/main/resources/Default_06_Conferences.xlsx
+++ b/src/main/resources/Default_06_Conferences.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsbol\IdeaProjects\NCAA_06_Scheduler\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\newRepos\other\ncaa-06-scheduler\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD9611DE-AACC-4F46-A7BB-EB7413A34EE1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Jared 06 Conferences" sheetId="2" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="279">
   <si>
     <t>TGID</t>
   </si>
@@ -789,12 +788,84 @@
   <si>
     <t>Ohio Valley</t>
   </si>
+  <si>
+    <t>Appalachian State</t>
+  </si>
+  <si>
+    <t>SoCon</t>
+  </si>
+  <si>
+    <t>The Citadel</t>
+  </si>
+  <si>
+    <t>Furman</t>
+  </si>
+  <si>
+    <t>Georgia Southern</t>
+  </si>
+  <si>
+    <t>Western Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catamounts </t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mocs </t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Colonial</t>
+  </si>
+  <si>
+    <t>Minutemen</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>Dukes</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>Crimson</t>
+  </si>
+  <si>
+    <t>Ivy League</t>
+  </si>
+  <si>
+    <t>Eastern Washington</t>
+  </si>
+  <si>
+    <t>Big Sky</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Grizzlies</t>
+  </si>
+  <si>
+    <t>Hilltoppers</t>
+  </si>
+  <si>
+    <t>Eastern Kentucky</t>
+  </si>
+  <si>
+    <t>Paladins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -846,6 +917,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -892,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -984,6 +1061,15 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,41 +1384,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E120" sqref="E120"/>
+      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.703125" customWidth="1"/>
-    <col min="2" max="2" width="22.703125" customWidth="1"/>
-    <col min="3" max="3" width="17.29296875" customWidth="1"/>
-    <col min="4" max="4" width="17.41015625" customWidth="1"/>
-    <col min="5" max="5" width="15.87890625" customWidth="1"/>
-    <col min="6" max="6" width="8.29296875" customWidth="1"/>
-    <col min="7" max="7" width="18.29296875" customWidth="1"/>
-    <col min="8" max="8" width="18.41015625" customWidth="1"/>
-    <col min="9" max="9" width="20.87890625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="13.29296875" customWidth="1"/>
-    <col min="12" max="13" width="12.1171875" customWidth="1"/>
-    <col min="14" max="14" width="8.87890625" customWidth="1"/>
-    <col min="15" max="15" width="10.703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
     <col min="16" max="17" width="12" customWidth="1"/>
-    <col min="18" max="33" width="9.1171875" customWidth="1"/>
-    <col min="34" max="34" width="11.29296875" customWidth="1"/>
-    <col min="35" max="36" width="9.29296875" customWidth="1"/>
-    <col min="37" max="38" width="9.1171875" customWidth="1"/>
-    <col min="39" max="40" width="9.29296875" customWidth="1"/>
-    <col min="41" max="41" width="9.87890625" customWidth="1"/>
-    <col min="42" max="44" width="9.1171875" customWidth="1"/>
-    <col min="45" max="53" width="8.703125" customWidth="1"/>
+    <col min="18" max="33" width="9.140625" customWidth="1"/>
+    <col min="34" max="34" width="11.28515625" customWidth="1"/>
+    <col min="35" max="36" width="9.28515625" customWidth="1"/>
+    <col min="37" max="38" width="9.140625" customWidth="1"/>
+    <col min="39" max="40" width="9.28515625" customWidth="1"/>
+    <col min="41" max="41" width="9.85546875" customWidth="1"/>
+    <col min="42" max="44" width="9.140625" customWidth="1"/>
+    <col min="45" max="53" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="14.25" customHeight="1">
@@ -10131,10 +10217,13 @@
       <c r="F121" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G121" s="24" t="s">
+      <c r="G121" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="H121" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H121" s="24" t="s">
+      <c r="I121" s="24" t="s">
         <v>131</v>
       </c>
       <c r="O121" s="22"/>
@@ -10177,13 +10266,25 @@
       <c r="AZ121" s="21"/>
     </row>
     <row r="122" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A122" s="29"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="26"/>
+      <c r="A122" s="36">
+        <v>188</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E122" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F122" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" s="37"/>
       <c r="H122" s="26"/>
       <c r="I122" s="16"/>
       <c r="J122" s="16"/>
@@ -10231,13 +10332,27 @@
       <c r="AZ122" s="21"/>
     </row>
     <row r="123" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A123" s="29"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="26"/>
+      <c r="A123" s="36">
+        <v>190</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D123" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E123" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F123" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="37" t="s">
+        <v>258</v>
+      </c>
       <c r="H123" s="26"/>
       <c r="I123" s="27"/>
       <c r="J123" s="15"/>
@@ -10285,13 +10400,25 @@
       <c r="AZ123" s="21"/>
     </row>
     <row r="124" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A124" s="29"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="26"/>
+      <c r="A124" s="36">
+        <v>193</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E124" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F124" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="37"/>
       <c r="H124" s="26"/>
       <c r="I124" s="27"/>
       <c r="J124" s="27"/>
@@ -10339,13 +10466,25 @@
       <c r="AZ124" s="21"/>
     </row>
     <row r="125" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A125" s="29"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="26"/>
+      <c r="A125" s="36">
+        <v>195</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E125" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F125" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="37"/>
       <c r="H125" s="26"/>
       <c r="I125" s="27"/>
       <c r="J125" s="27"/>
@@ -10393,13 +10532,25 @@
       <c r="AZ125" s="21"/>
     </row>
     <row r="126" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A126" s="29"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="26"/>
+      <c r="A126" s="36">
+        <v>194</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C126" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F126" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" s="37"/>
       <c r="H126" s="26"/>
       <c r="I126" s="27"/>
       <c r="J126" s="15"/>
@@ -10447,13 +10598,25 @@
       <c r="AZ126" s="21"/>
     </row>
     <row r="127" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A127" s="29"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="26"/>
+      <c r="A127" s="36">
+        <v>186</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="E127" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="F127" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" s="37"/>
       <c r="H127" s="26"/>
       <c r="I127" s="27"/>
       <c r="J127" s="15"/>
@@ -10501,13 +10664,25 @@
       <c r="AZ127" s="21"/>
     </row>
     <row r="128" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A128" s="29"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
+      <c r="A128" s="36">
+        <v>181</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D128" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E128" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="F128" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="36"/>
       <c r="H128" s="16"/>
       <c r="I128" s="16"/>
       <c r="J128" s="16"/>
@@ -10555,13 +10730,25 @@
       <c r="AZ128" s="16"/>
     </row>
     <row r="129" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A129" s="29"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
+      <c r="A129" s="36">
+        <v>179</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C129" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E129" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="F129" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" s="36"/>
       <c r="H129" s="16"/>
       <c r="I129" s="16"/>
       <c r="J129" s="16"/>
@@ -10609,13 +10796,25 @@
       <c r="AZ129" s="16"/>
     </row>
     <row r="130" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A130" s="29"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
+      <c r="A130" s="36">
+        <v>129</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C130" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="D130" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E130" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="F130" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" s="36"/>
       <c r="H130" s="16"/>
       <c r="I130" s="16"/>
       <c r="J130" s="16"/>
@@ -10663,13 +10862,25 @@
       <c r="AZ130" s="16"/>
     </row>
     <row r="131" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A131" s="29"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
+      <c r="A131" s="36">
+        <v>197</v>
+      </c>
+      <c r="B131" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E131" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F131" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" s="36"/>
       <c r="H131" s="16"/>
       <c r="I131" s="16"/>
       <c r="J131" s="16"/>
@@ -10717,13 +10928,25 @@
       <c r="AZ131" s="16"/>
     </row>
     <row r="132" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A132" s="29"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
+      <c r="A132" s="36">
+        <v>199</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C132" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="E132" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F132" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" s="36"/>
       <c r="H132" s="16"/>
       <c r="I132" s="16"/>
       <c r="J132" s="16"/>
@@ -10771,13 +10994,27 @@
       <c r="AZ132" s="16"/>
     </row>
     <row r="133" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A133" s="29"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
+      <c r="A133" s="36">
+        <v>211</v>
+      </c>
+      <c r="B133" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D133" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E133" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="36" t="s">
+        <v>277</v>
+      </c>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
       <c r="J133" s="16"/>
@@ -10825,13 +11062,27 @@
       <c r="AZ133" s="16"/>
     </row>
     <row r="134" spans="1:52" ht="14.25" customHeight="1">
-      <c r="A134" s="29"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
+      <c r="A134" s="36">
+        <v>192</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E134" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" s="36" t="s">
+        <v>257</v>
+      </c>
       <c r="H134" s="16"/>
       <c r="I134" s="16"/>
       <c r="J134" s="16"/>
@@ -35142,8 +35393,8 @@
       <c r="AZ1121" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N121" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N121">
+  <autoFilter ref="A1:N121">
+    <sortState ref="A2:N121">
       <sortCondition ref="E2:E121" customList="ACC,Big East,Big Ten,Big 12,Pac-12,Pac-10,SEC,Independent,MWC,C-USA,WAC,MAC,Sun Belt"/>
     </sortState>
   </autoFilter>

--- a/src/main/resources/Default_06_Conferences.xlsx
+++ b/src/main/resources/Default_06_Conferences.xlsx
@@ -1388,10 +1388,10 @@
   <dimension ref="A1:BA1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
+      <selection pane="bottomRight" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="123" spans="1:52" ht="14.25" customHeight="1">
       <c r="A123" s="36">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B123" s="36" t="s">
         <v>257</v>

--- a/src/main/resources/Default_06_Conferences.xlsx
+++ b/src/main/resources/Default_06_Conferences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jared.boleyn\Documents\GitHub\ncaa-06-scheduler\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5544A810-093A-45ED-805E-513F81553CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA97F96-3939-478F-BDF2-C80BD1EE7ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="2025" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30510" yWindow="1350" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="2" r:id="rId1"/>
@@ -33868,7 +33868,7 @@
   <dimension ref="A1:AR1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34616,7 +34616,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>7</v>
@@ -34670,7 +34670,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>7</v>

--- a/src/main/resources/Default_06_Conferences.xlsx
+++ b/src/main/resources/Default_06_Conferences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jared.boleyn\Documents\GitHub\ncaa-06-scheduler\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA97F96-3939-478F-BDF2-C80BD1EE7ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B368D43-BBE7-4571-BD7F-50A409DCDAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="1350" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30960" yWindow="225" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="183">
   <si>
     <t>TGID</t>
   </si>
@@ -439,21 +439,6 @@
   </si>
   <si>
     <t>Samford</t>
-  </si>
-  <si>
-    <t>Wofford</t>
-  </si>
-  <si>
-    <t>Wright State</t>
-  </si>
-  <si>
-    <t>Xavier</t>
-  </si>
-  <si>
-    <t>Yale</t>
-  </si>
-  <si>
-    <t>Youngstown State</t>
   </si>
   <si>
     <t>WAC</t>
@@ -1204,7 +1189,7 @@
   <dimension ref="A1:BD1121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
@@ -1242,13 +1227,13 @@
   <sheetData>
     <row r="1" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>3</v>
@@ -1313,16 +1298,16 @@
         <v>58</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1380,7 +1365,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1441,7 +1426,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1502,16 +1487,16 @@
         <v>34</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1566,10 +1551,10 @@
     </row>
     <row r="6" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1629,16 +1614,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1696,7 +1681,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1757,16 +1742,16 @@
         <v>77</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1824,16 +1809,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1891,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1952,7 +1937,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -2010,10 +1995,10 @@
     </row>
     <row r="13" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -2071,10 +2056,10 @@
     </row>
     <row r="14" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2132,10 +2117,10 @@
     </row>
     <row r="15" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2193,10 +2178,10 @@
     </row>
     <row r="16" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2254,10 +2239,10 @@
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2315,10 +2300,10 @@
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -33867,8 +33852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51535CF-1864-4C27-A26A-82D990293050}">
   <dimension ref="A1:AR1121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33904,7 +33889,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
@@ -33957,7 +33942,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>7</v>
@@ -34012,7 +33997,7 @@
         <v>58</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>7</v>
@@ -34067,7 +34052,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>7</v>
@@ -34122,7 +34107,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>7</v>
@@ -34177,7 +34162,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>7</v>
@@ -34231,7 +34216,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>7</v>
@@ -34286,7 +34271,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>7</v>
@@ -34341,7 +34326,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>7</v>
@@ -34396,7 +34381,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>7</v>
@@ -34451,7 +34436,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>7</v>
@@ -34506,7 +34491,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>7</v>
@@ -34561,7 +34546,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>7</v>
@@ -34616,7 +34601,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>7</v>
@@ -34670,7 +34655,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>7</v>
@@ -34725,7 +34710,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>7</v>
@@ -34780,7 +34765,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>7</v>
@@ -34834,7 +34819,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>7</v>
@@ -34889,7 +34874,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E19" s="36" t="s">
         <v>7</v>
@@ -34944,7 +34929,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>7</v>
@@ -34999,7 +34984,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>7</v>
@@ -35054,7 +35039,7 @@
         <v>34</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>7</v>
@@ -35109,7 +35094,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>7</v>
@@ -35164,7 +35149,7 @@
         <v>34</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>7</v>
@@ -35219,7 +35204,7 @@
         <v>34</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>7</v>
@@ -35691,10 +35676,10 @@
         <v>197</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="36" t="s">
@@ -35744,10 +35729,10 @@
         <v>199</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D35" s="36"/>
       <c r="E35" s="36" t="s">
@@ -36380,10 +36365,10 @@
         <v>186</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36" t="s">
@@ -36436,7 +36421,7 @@
         <v>86</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D48" s="36"/>
       <c r="E48" s="36" t="s">
@@ -36486,10 +36471,10 @@
         <v>179</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D49" s="36"/>
       <c r="E49" s="36" t="s">
@@ -36545,7 +36530,7 @@
         <v>77</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E50" s="36" t="s">
         <v>7</v>
@@ -36600,7 +36585,7 @@
         <v>77</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>7</v>
@@ -36655,7 +36640,7 @@
         <v>77</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E52" s="36" t="s">
         <v>7</v>
@@ -36710,7 +36695,7 @@
         <v>77</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E53" s="36" t="s">
         <v>7</v>
@@ -36765,7 +36750,7 @@
         <v>77</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E54" s="36" t="s">
         <v>7</v>
@@ -36820,7 +36805,7 @@
         <v>77</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E55" s="36" t="s">
         <v>7</v>
@@ -36875,7 +36860,7 @@
         <v>77</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E56" s="36" t="s">
         <v>7</v>
@@ -36930,7 +36915,7 @@
         <v>77</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E57" s="36" t="s">
         <v>7</v>
@@ -36985,7 +36970,7 @@
         <v>77</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E58" s="36" t="s">
         <v>7</v>
@@ -37040,7 +37025,7 @@
         <v>77</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E59" s="36" t="s">
         <v>7</v>
@@ -37095,7 +37080,7 @@
         <v>77</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E60" s="36" t="s">
         <v>7</v>
@@ -37150,7 +37135,7 @@
         <v>77</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E61" s="36" t="s">
         <v>7</v>
@@ -37411,10 +37396,10 @@
         <v>129</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D66" s="36"/>
       <c r="E66" s="36" t="s">
@@ -37470,7 +37455,7 @@
         <v>14</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E67" s="36" t="s">
         <v>7</v>
@@ -37525,7 +37510,7 @@
         <v>14</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E68" s="36" t="s">
         <v>7</v>
@@ -37580,7 +37565,7 @@
         <v>14</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E69" s="36" t="s">
         <v>7</v>
@@ -37635,7 +37620,7 @@
         <v>14</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E70" s="36" t="s">
         <v>7</v>
@@ -37690,7 +37675,7 @@
         <v>14</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E71" s="36" t="s">
         <v>7</v>
@@ -37745,7 +37730,7 @@
         <v>14</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E72" s="36" t="s">
         <v>7</v>
@@ -37800,7 +37785,7 @@
         <v>14</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E73" s="36" t="s">
         <v>7</v>
@@ -37855,7 +37840,7 @@
         <v>14</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E74" s="36" t="s">
         <v>7</v>
@@ -37910,7 +37895,7 @@
         <v>14</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E75" s="36" t="s">
         <v>7</v>
@@ -37965,7 +37950,7 @@
         <v>14</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E76" s="36" t="s">
         <v>7</v>
@@ -38019,7 +38004,7 @@
         <v>14</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E77" s="36" t="s">
         <v>7</v>
@@ -38074,7 +38059,7 @@
         <v>14</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E78" s="36" t="s">
         <v>7</v>
@@ -38602,7 +38587,7 @@
         <v>123</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D88" s="36"/>
       <c r="E88" s="36" t="s">
@@ -38655,7 +38640,7 @@
         <v>137</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D89" s="36"/>
       <c r="E89" s="36" t="s">
@@ -38708,7 +38693,7 @@
         <v>23</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D90" s="36"/>
       <c r="E90" s="36" t="s">
@@ -38761,7 +38746,7 @@
         <v>24</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D91" s="36"/>
       <c r="E91" s="36" t="s">
@@ -38814,7 +38799,7 @@
         <v>67</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D92" s="36"/>
       <c r="E92" s="36" t="s">
@@ -38867,7 +38852,7 @@
         <v>132</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D93" s="36"/>
       <c r="E93" s="36" t="s">
@@ -38919,7 +38904,7 @@
         <v>133</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D94" s="36"/>
       <c r="E94" s="36" t="s">
@@ -38972,7 +38957,7 @@
         <v>68</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D95" s="36"/>
       <c r="E95" s="36" t="s">
@@ -39025,7 +39010,7 @@
         <v>69</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D96" s="36"/>
       <c r="E96" s="36" t="s">
@@ -39078,7 +39063,7 @@
         <v>70</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D97" s="36"/>
       <c r="E97" s="36" t="s">
@@ -39131,7 +39116,7 @@
         <v>134</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D98" s="36"/>
       <c r="E98" s="36" t="s">
@@ -39184,7 +39169,7 @@
         <v>102</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D99" s="36"/>
       <c r="E99" s="36" t="s">
@@ -39239,7 +39224,7 @@
         <v>17</v>
       </c>
       <c r="D100" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E100" s="36" t="s">
         <v>7</v>
@@ -39294,7 +39279,7 @@
         <v>17</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E101" s="36" t="s">
         <v>7</v>
@@ -39349,7 +39334,7 @@
         <v>17</v>
       </c>
       <c r="D102" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E102" s="36" t="s">
         <v>7</v>
@@ -39404,7 +39389,7 @@
         <v>17</v>
       </c>
       <c r="D103" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E103" s="36" t="s">
         <v>7</v>
@@ -39459,7 +39444,7 @@
         <v>17</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E104" s="36" t="s">
         <v>7</v>
@@ -39513,7 +39498,7 @@
         <v>17</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E105" s="36" t="s">
         <v>7</v>
@@ -39568,7 +39553,7 @@
         <v>17</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E106" s="36" t="s">
         <v>7</v>
@@ -39623,7 +39608,7 @@
         <v>17</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E107" s="36" t="s">
         <v>7</v>
@@ -39678,7 +39663,7 @@
         <v>17</v>
       </c>
       <c r="D108" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E108" s="36" t="s">
         <v>7</v>
@@ -39733,7 +39718,7 @@
         <v>17</v>
       </c>
       <c r="D109" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E109" s="36" t="s">
         <v>7</v>
@@ -39788,7 +39773,7 @@
         <v>17</v>
       </c>
       <c r="D110" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E110" s="36" t="s">
         <v>7</v>
@@ -39843,7 +39828,7 @@
         <v>17</v>
       </c>
       <c r="D111" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E111" s="36" t="s">
         <v>7</v>
@@ -39892,10 +39877,10 @@
         <v>188</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C112" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D112" s="36"/>
       <c r="E112" s="36" t="s">
@@ -39945,10 +39930,10 @@
         <v>189</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D113" s="36"/>
       <c r="E113" s="36" t="s">
@@ -39998,10 +39983,10 @@
         <v>193</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D114" s="36"/>
       <c r="E114" s="36" t="s">
@@ -40051,10 +40036,10 @@
         <v>195</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C115" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D115" s="36"/>
       <c r="E115" s="36" t="s">
@@ -40104,10 +40089,10 @@
         <v>194</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C116" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D116" s="36"/>
       <c r="E116" s="36" t="s">
@@ -40157,10 +40142,10 @@
         <v>192</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C117" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D117" s="36"/>
       <c r="E117" s="36" t="s">
@@ -40637,7 +40622,7 @@
         <v>47</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D126" s="36"/>
       <c r="E126" s="36" t="s">
@@ -40690,7 +40675,7 @@
         <v>50</v>
       </c>
       <c r="C127" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D127" s="36"/>
       <c r="E127" s="36" t="s">
@@ -40742,7 +40727,7 @@
         <v>98</v>
       </c>
       <c r="C128" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D128" s="36"/>
       <c r="E128" s="36" t="s">
@@ -40795,7 +40780,7 @@
         <v>46</v>
       </c>
       <c r="C129" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D129" s="36"/>
       <c r="E129" s="36" t="s">
@@ -40848,7 +40833,7 @@
         <v>65</v>
       </c>
       <c r="C130" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D130" s="36"/>
       <c r="E130" s="36" t="s">
@@ -40901,7 +40886,7 @@
         <v>48</v>
       </c>
       <c r="C131" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D131" s="36"/>
       <c r="E131" s="36" t="s">
@@ -40954,7 +40939,7 @@
         <v>97</v>
       </c>
       <c r="C132" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D132" s="36"/>
       <c r="E132" s="36" t="s">
@@ -41007,7 +40992,7 @@
         <v>64</v>
       </c>
       <c r="C133" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D133" s="36"/>
       <c r="E133" s="36" t="s">
@@ -41060,7 +41045,7 @@
         <v>127</v>
       </c>
       <c r="C134" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D134" s="36"/>
       <c r="E134" s="36" t="s">
@@ -49987,9 +49972,7 @@
     </row>
     <row r="338" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="36"/>
-      <c r="B338" s="52" t="s">
-        <v>138</v>
-      </c>
+      <c r="B338" s="52"/>
       <c r="C338" s="52"/>
       <c r="D338" s="52"/>
       <c r="E338" s="52"/>
@@ -50031,9 +50014,7 @@
     </row>
     <row r="339" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="36"/>
-      <c r="B339" s="52" t="s">
-        <v>139</v>
-      </c>
+      <c r="B339" s="52"/>
       <c r="C339" s="52"/>
       <c r="D339" s="52"/>
       <c r="E339" s="52"/>
@@ -50075,9 +50056,7 @@
     </row>
     <row r="340" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="36"/>
-      <c r="B340" s="52" t="s">
-        <v>85</v>
-      </c>
+      <c r="B340" s="52"/>
       <c r="C340" s="52"/>
       <c r="D340" s="52"/>
       <c r="E340" s="52"/>
@@ -50119,9 +50098,7 @@
     </row>
     <row r="341" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="36"/>
-      <c r="B341" s="52" t="s">
-        <v>140</v>
-      </c>
+      <c r="B341" s="52"/>
       <c r="C341" s="52"/>
       <c r="D341" s="52"/>
       <c r="E341" s="52"/>
@@ -50163,9 +50140,7 @@
     </row>
     <row r="342" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="36"/>
-      <c r="B342" s="52" t="s">
-        <v>141</v>
-      </c>
+      <c r="B342" s="52"/>
       <c r="C342" s="52"/>
       <c r="D342" s="52"/>
       <c r="E342" s="52"/>
@@ -50207,9 +50182,7 @@
     </row>
     <row r="343" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="36"/>
-      <c r="B343" s="52" t="s">
-        <v>142</v>
-      </c>
+      <c r="B343" s="52"/>
       <c r="C343" s="62"/>
       <c r="D343" s="62"/>
       <c r="E343" s="52"/>
